--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kurniawan\PycharmProjects\pertamina_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A4A32B-94C9-42FD-8B04-C5D6EA2C1830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F754E1-AC02-40EA-B678-65CBC37F1DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{55B9E306-4A41-4993-9284-82388FB23228}"/>
   </bookViews>
@@ -45,13 +45,13 @@
     <t>Pressure</t>
   </si>
   <si>
-    <t>EWM</t>
-  </si>
-  <si>
     <t>IncDeg</t>
   </si>
   <si>
     <t>MDepth</t>
+  </si>
+  <si>
+    <t>EMW</t>
   </si>
 </sst>
 </file>
@@ -409,17 +409,17 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -431,7 +431,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kurniawan\PycharmProjects\pertamina_scenario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mucha\PycharmProjects\pertamina_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F754E1-AC02-40EA-B678-65CBC37F1DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FB401D-3E17-40D8-8830-CE3D43801E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{55B9E306-4A41-4993-9284-82388FB23228}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{55B9E306-4A41-4993-9284-82388FB23228}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,37 +34,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>ftMD</t>
-  </si>
-  <si>
-    <t>ftTVD</t>
-  </si>
-  <si>
-    <t>Pressure</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>IncDeg</t>
   </si>
   <si>
     <t>MDepth</t>
   </si>
-  <si>
-    <t>EMW</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="0"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,17 +77,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{5BBE8FD5-1FD1-462F-8201-0434B4056182}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -406,752 +403,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7669AD8E-BE3E-4239-A3C8-83D5B0AF316D}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>205.71</v>
       </c>
       <c r="B3" s="1">
         <v>0.38</v>
       </c>
-      <c r="C3">
-        <v>656.17</v>
-      </c>
-      <c r="D3">
-        <v>655.91</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>288.62</v>
       </c>
       <c r="B4" s="1">
         <v>0.32</v>
       </c>
-      <c r="C4">
-        <v>1312.34</v>
-      </c>
-      <c r="D4">
-        <v>1300.77</v>
-      </c>
-      <c r="E4">
-        <v>162.38</v>
-      </c>
-      <c r="F4">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>378.84</v>
       </c>
       <c r="B5" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C5">
-        <v>1968.5</v>
-      </c>
-      <c r="D5">
-        <v>1911.85</v>
-      </c>
-      <c r="E5">
-        <v>406.97</v>
-      </c>
-      <c r="F5">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>470.7</v>
       </c>
       <c r="B6" s="1">
         <v>0.76</v>
       </c>
-      <c r="C6">
-        <v>2624.67</v>
-      </c>
-      <c r="D6">
-        <v>2452.2199999999998</v>
-      </c>
-      <c r="E6">
-        <v>621.5</v>
-      </c>
-      <c r="F6">
-        <v>4.87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>562.89</v>
       </c>
       <c r="B7" s="1">
         <v>1.53</v>
       </c>
-      <c r="C7">
-        <v>3280.84</v>
-      </c>
-      <c r="D7">
-        <v>2965.39</v>
-      </c>
-      <c r="E7">
-        <v>814.4</v>
-      </c>
-      <c r="F7">
-        <v>5.28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>654.76</v>
       </c>
       <c r="B8" s="1">
         <v>2.71</v>
       </c>
-      <c r="C8">
-        <v>3608.92</v>
-      </c>
-      <c r="D8">
-        <v>3209.59</v>
-      </c>
-      <c r="E8">
-        <v>902.14</v>
-      </c>
-      <c r="F8">
-        <v>5.41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>744.98</v>
       </c>
       <c r="B9" s="1">
         <v>3.46</v>
       </c>
-      <c r="C9">
-        <v>3937.01</v>
-      </c>
-      <c r="D9">
-        <v>3456.9</v>
-      </c>
-      <c r="E9">
-        <v>998.29</v>
-      </c>
-      <c r="F9">
-        <v>5.55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>834.55</v>
       </c>
       <c r="B10" s="1">
         <v>4.2699999999999996</v>
       </c>
-      <c r="C10">
-        <v>4265.09</v>
-      </c>
-      <c r="D10">
-        <v>3705.77</v>
-      </c>
-      <c r="E10">
-        <v>1090.83</v>
-      </c>
-      <c r="F10">
-        <v>5.66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>925.75</v>
       </c>
       <c r="B11" s="1">
         <v>5.08</v>
       </c>
-      <c r="C11">
-        <v>4593.18</v>
-      </c>
-      <c r="D11">
-        <v>3953.63</v>
-      </c>
-      <c r="E11">
-        <v>1180.98</v>
-      </c>
-      <c r="F11">
-        <v>5.74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1017.29</v>
       </c>
       <c r="B12" s="1">
         <v>6.42</v>
       </c>
-      <c r="C12">
-        <v>4921.26</v>
-      </c>
-      <c r="D12">
-        <v>4202.22</v>
-      </c>
-      <c r="E12">
-        <v>1268.71</v>
-      </c>
-      <c r="F12">
-        <v>5.81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1112.1099999999999</v>
       </c>
       <c r="B13" s="1">
         <v>7.51</v>
       </c>
-      <c r="C13">
-        <v>5249.34</v>
-      </c>
-      <c r="D13">
-        <v>4451.99</v>
-      </c>
-      <c r="E13">
-        <v>1358.25</v>
-      </c>
-      <c r="F13">
-        <v>5.87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1206.92</v>
       </c>
       <c r="B14" s="1">
         <v>9.5500000000000007</v>
       </c>
-      <c r="C14">
-        <v>5577.43</v>
-      </c>
-      <c r="D14">
-        <v>4707.3500000000004</v>
-      </c>
-      <c r="E14">
-        <v>1447.79</v>
-      </c>
-      <c r="F14">
-        <v>5.91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1263.19</v>
       </c>
       <c r="B15" s="1">
         <v>10.59</v>
       </c>
-      <c r="C15">
-        <v>5741.47</v>
-      </c>
-      <c r="D15">
-        <v>4840.57</v>
-      </c>
-      <c r="E15">
-        <v>1495.87</v>
-      </c>
-      <c r="F15">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1392.95</v>
       </c>
       <c r="B16" s="1">
         <v>12.27</v>
       </c>
-      <c r="C16">
-        <v>5905.51</v>
-      </c>
-      <c r="D16">
-        <v>4971.32</v>
-      </c>
-      <c r="E16">
-        <v>1540.34</v>
-      </c>
-      <c r="F16">
-        <v>5.96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1487.5</v>
       </c>
       <c r="B17" s="1">
         <v>14.87</v>
       </c>
-      <c r="C17">
-        <v>6069.55</v>
-      </c>
-      <c r="D17">
-        <v>5099.74</v>
-      </c>
-      <c r="E17">
-        <v>1590.21</v>
-      </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1577.33</v>
       </c>
       <c r="B18" s="1">
         <v>16.510000000000002</v>
       </c>
-      <c r="C18">
-        <v>6233.6</v>
-      </c>
-      <c r="D18">
-        <v>5227.13</v>
-      </c>
-      <c r="E18">
-        <v>1629.28</v>
-      </c>
-      <c r="F18">
-        <v>5.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1675.43</v>
       </c>
       <c r="B19" s="1">
         <v>18.43</v>
       </c>
-      <c r="C19">
-        <v>6397.64</v>
-      </c>
-      <c r="D19">
-        <v>5354.13</v>
-      </c>
-      <c r="E19">
-        <v>1671.94</v>
-      </c>
-      <c r="F19">
-        <v>6.01</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1769.91</v>
       </c>
       <c r="B20" s="1">
         <v>20.54</v>
       </c>
-      <c r="C20">
-        <v>6561.68</v>
-      </c>
-      <c r="D20">
-        <v>5482.4</v>
-      </c>
-      <c r="E20">
-        <v>1716.41</v>
-      </c>
-      <c r="F20">
-        <v>6.02</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1863.75</v>
       </c>
       <c r="B21" s="1">
         <v>22.82</v>
       </c>
-      <c r="C21">
-        <v>6725.72</v>
-      </c>
-      <c r="D21">
-        <v>5611.74</v>
-      </c>
-      <c r="E21">
-        <v>1759.68</v>
-      </c>
-      <c r="F21">
-        <v>6.03</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1958.89</v>
       </c>
       <c r="B22" s="1">
         <v>25.78</v>
       </c>
-      <c r="C22">
-        <v>6889.76</v>
-      </c>
-      <c r="D22">
-        <v>5736.94</v>
-      </c>
-      <c r="E22">
-        <v>1801.14</v>
-      </c>
-      <c r="F22">
-        <v>6.04</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2055.35</v>
       </c>
       <c r="B23" s="1">
         <v>28.82</v>
       </c>
-      <c r="C23">
-        <v>7053.81</v>
-      </c>
-      <c r="D23">
-        <v>5863.53</v>
-      </c>
-      <c r="E23">
-        <v>1842.61</v>
-      </c>
-      <c r="F23">
-        <v>6.04</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2150.16</v>
       </c>
       <c r="B24" s="1">
         <v>31.67</v>
       </c>
-      <c r="C24">
-        <v>7217.85</v>
-      </c>
-      <c r="D24">
-        <v>5992.32</v>
-      </c>
-      <c r="E24">
-        <v>1889.48</v>
-      </c>
-      <c r="F24">
-        <v>6.06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2243.67</v>
       </c>
       <c r="B25" s="1">
         <v>34.79</v>
       </c>
-      <c r="C25">
-        <v>7381.89</v>
-      </c>
-      <c r="D25">
-        <v>6122.45</v>
-      </c>
-      <c r="E25">
-        <v>1930.95</v>
-      </c>
-      <c r="F25">
-        <v>6.07</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2333.89</v>
       </c>
       <c r="B26" s="1">
         <v>36.93</v>
       </c>
-      <c r="C26">
-        <v>7545.93</v>
-      </c>
-      <c r="D26">
-        <v>6252.58</v>
-      </c>
-      <c r="E26">
-        <v>1975.42</v>
-      </c>
-      <c r="F26">
-        <v>6.08</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2430.6799999999998</v>
       </c>
       <c r="B27" s="1">
         <v>38.54</v>
       </c>
-      <c r="C27">
-        <v>7709.97</v>
-      </c>
-      <c r="D27">
-        <v>6383.1</v>
-      </c>
-      <c r="E27">
-        <v>2020.49</v>
-      </c>
-      <c r="F27">
-        <v>6.09</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2522.87</v>
       </c>
       <c r="B28" s="1">
         <v>40.369999999999997</v>
       </c>
-      <c r="C28">
-        <v>7874.02</v>
-      </c>
-      <c r="D28">
-        <v>6513.69</v>
-      </c>
-      <c r="E28">
-        <v>2064.96</v>
-      </c>
-      <c r="F28">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2618.67</v>
       </c>
       <c r="B29" s="1">
         <v>42.91</v>
       </c>
-      <c r="C29">
-        <v>8038.06</v>
-      </c>
-      <c r="D29">
-        <v>6644.29</v>
-      </c>
-      <c r="E29">
-        <v>2106.42</v>
-      </c>
-      <c r="F29">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2706.59</v>
       </c>
       <c r="B30" s="1">
         <v>43.89</v>
       </c>
-      <c r="C30">
-        <v>8202.1</v>
-      </c>
-      <c r="D30">
-        <v>6771.76</v>
-      </c>
-      <c r="E30">
-        <v>2150.89</v>
-      </c>
-      <c r="F30">
-        <v>6.11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2798.13</v>
       </c>
       <c r="B31" s="1">
         <v>45.01</v>
       </c>
-      <c r="C31">
-        <v>8366.14</v>
-      </c>
-      <c r="D31">
-        <v>6898.88</v>
-      </c>
-      <c r="E31">
-        <v>2192.96</v>
-      </c>
-      <c r="F31">
-        <v>6.11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
+        <v>2860.89</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45.04</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>2894.91</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B33" s="1">
         <v>45.05</v>
       </c>
-      <c r="C32">
-        <v>8530.18</v>
-      </c>
-      <c r="D32">
-        <v>7026.01</v>
-      </c>
-      <c r="E32">
-        <v>2236.83</v>
-      </c>
-      <c r="F32">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="1">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>2949.48</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44.73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>3007.32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B35" s="1">
         <v>44.39</v>
       </c>
-      <c r="C33">
-        <v>8694.23</v>
-      </c>
-      <c r="D33">
-        <v>7149.14</v>
-      </c>
-      <c r="E33">
-        <v>2274.08</v>
-      </c>
-      <c r="F33">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="1">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>3102.79</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B36" s="1">
         <v>45.49</v>
       </c>
-      <c r="C34">
-        <v>8858.27</v>
-      </c>
-      <c r="D34">
-        <v>7270.94</v>
-      </c>
-      <c r="E34">
-        <v>2318.5500000000002</v>
-      </c>
-      <c r="F34">
-        <v>6.13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="1">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>3197.93</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B37" s="1">
         <v>45.4</v>
       </c>
-      <c r="C35">
-        <v>9022.31</v>
-      </c>
-      <c r="D35">
-        <v>7391.63</v>
-      </c>
-      <c r="E35">
-        <v>2362.42</v>
-      </c>
-      <c r="F35">
-        <v>6.15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="1">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>3260.27</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B38" s="1">
         <v>45.7</v>
       </c>
-      <c r="C36">
-        <v>9186.35</v>
-      </c>
-      <c r="D36">
-        <v>7512.03</v>
-      </c>
-      <c r="E36">
-        <v>2416.5100000000002</v>
-      </c>
-      <c r="F36">
-        <v>6.19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="1">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>3322.93</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B39" s="1">
         <v>45.45</v>
       </c>
-      <c r="C37">
-        <v>9350.39</v>
-      </c>
-      <c r="D37">
-        <v>7633.45</v>
-      </c>
-      <c r="E37">
-        <v>2441.14</v>
-      </c>
-      <c r="F37">
-        <v>6.15</v>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>6059.869999999999</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>6267.6799999999994</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>6335.3</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>6341.86</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45.45</v>
       </c>
     </row>
   </sheetData>
